--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
@@ -582,7 +582,7 @@
         <v>-0.16</v>
       </c>
       <c r="F5">
-        <v>0.05749999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="G5">
         <v>0.18</v>
@@ -602,13 +602,13 @@
         <v>-0.49</v>
       </c>
       <c r="D6">
-        <v>-3.582</v>
+        <v>-3.58</v>
       </c>
       <c r="E6">
         <v>0.49</v>
       </c>
       <c r="F6">
-        <v>0.05749999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="G6">
         <v>0.18</v>
@@ -628,13 +628,13 @@
         <v>0.59</v>
       </c>
       <c r="D7">
-        <v>-3.582</v>
+        <v>-3.58</v>
       </c>
       <c r="E7">
         <v>-0.59</v>
       </c>
       <c r="F7">
-        <v>0.05749999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
         <v>0.19</v>
@@ -654,10 +654,10 @@
         <v>0.04</v>
       </c>
       <c r="D8">
-        <v>-3.582</v>
+        <v>-3.58</v>
       </c>
       <c r="E8">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F8">
         <v>0.04</v>
@@ -706,10 +706,10 @@
         <v>-0.32</v>
       </c>
       <c r="D10">
-        <v>-3.582</v>
+        <v>-3.58</v>
       </c>
       <c r="E10">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F10">
         <v>-0.32</v>
@@ -732,10 +732,10 @@
         <v>-0.05</v>
       </c>
       <c r="D11">
-        <v>-3.582</v>
+        <v>-3.58</v>
       </c>
       <c r="E11">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F11">
         <v>-0.05</v>
@@ -761,7 +761,7 @@
         <v>-2.66</v>
       </c>
       <c r="E12">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F12">
         <v>-0.23</v>
@@ -865,7 +865,7 @@
         <v>-8.69</v>
       </c>
       <c r="E16">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F16">
         <v>-0.06</v>
@@ -891,10 +891,10 @@
         <v>-0.19</v>
       </c>
       <c r="E17">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F17">
-        <v>0.05749999999999998</v>
+        <v>0.06</v>
       </c>
       <c r="G17">
         <v>0.03</v>
@@ -917,7 +917,7 @@
         <v>1.94</v>
       </c>
       <c r="E18">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F18">
         <v>-0.01</v>
@@ -943,7 +943,7 @@
         <v>-1.12</v>
       </c>
       <c r="E19">
-        <v>2.8275</v>
+        <v>2.83</v>
       </c>
       <c r="F19">
         <v>0.04</v>
